--- a/LedPanel BOM.xlsx
+++ b/LedPanel BOM.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
   <si>
     <t>Part</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>http://www.aliexpress.com/item/100pcs-lot-SMD-Chip-Resistor-1-0805-4-7K-4700-OHMS-1-8W-100-YAGEO-New/32570155447.html?spm=2114.01010208.3.20.Hvq8se&amp;ws_ab_test=searchweb201556_7,searchweb201602_4_10037_10017_407_10033_406_10032,searchweb201603_1&amp;btsid=effd5f5a-2ac9-48db-9cef-81210f5969a4</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/10pcs-High-Power-LED-Chip-3W-LED-Beads-Natural-Cool-Warm-White-Red-Blue-Green-Yellow/32636792522.html?spm=2114.01010208.3.2.0U2RyP&amp;ws_ab_test=searchweb201556_7,searchweb201602_4_10037_10017_407_10033_406_10032,searchweb201603_1&amp;btsid=64dc43e4-ed51-4eee-bc82-8b5c295b0e09</t>
   </si>
 </sst>
 </file>
@@ -711,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G53"/>
+  <dimension ref="B1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,21 +1205,15 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>57</v>
@@ -1230,7 +1227,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>57</v>
@@ -1244,7 +1241,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>57</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>57</v>
@@ -1272,7 +1269,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>57</v>
@@ -1286,7 +1283,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>57</v>
@@ -1300,7 +1297,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
@@ -1314,7 +1311,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>57</v>
@@ -1328,7 +1325,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>57</v>
@@ -1342,7 +1339,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>57</v>
@@ -1356,7 +1353,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>57</v>
@@ -1368,29 +1365,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>52</v>
@@ -1402,7 +1401,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>52</v>
@@ -1414,22 +1413,22 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
@@ -1438,10 +1437,10 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>6</v>
@@ -1450,10 +1449,10 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>6</v>
@@ -1462,10 +1461,10 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>6</v>
@@ -1474,15 +1473,27 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
